--- a/Team8GanttChart.xlsx
+++ b/Team8GanttChart.xlsx
@@ -461,6 +461,114 @@
   <si>
     <t xml:space="preserve">Home Page Item Carousel </t>
   </si>
+  <si>
+    <t xml:space="preserve">User Profile Page </t>
+  </si>
+  <si>
+    <t>User Profile Page w/ Item Listing</t>
+  </si>
+  <si>
+    <t>Payment Card Validation (MM)</t>
+  </si>
+  <si>
+    <t>Purchase Confirmation Email (MA)</t>
+  </si>
+  <si>
+    <t>Purchase Item Listing (MS)</t>
+  </si>
+  <si>
+    <t>Home Page Item Carousel (MA) *</t>
+  </si>
+  <si>
+    <t>Denial of Payment Card (Card Validation)</t>
+  </si>
+  <si>
+    <t>Delete User Account (MM) *</t>
+  </si>
+  <si>
+    <t>User Profile Page w/ Item Purchases</t>
+  </si>
+  <si>
+    <t>Purchase Confirmation Email (MA)*</t>
+  </si>
+  <si>
+    <t>Search For Items (ZG)*</t>
+  </si>
+  <si>
+    <t>View Purchase History (MS)*</t>
+  </si>
+  <si>
+    <t>Apply Price Filter (ZG)*</t>
+  </si>
+  <si>
+    <t>Payment Card Validation (MM)*</t>
+  </si>
+  <si>
+    <t>Site-Wide "Dark Mode" (MS)*</t>
+  </si>
+  <si>
+    <t>Denial of Payment Card (Card Validation)*</t>
+  </si>
+  <si>
+    <t>Password Storage/Transmission*</t>
+  </si>
+  <si>
+    <t>Jinja Template Application*</t>
+  </si>
+  <si>
+    <t>Home Page Item Carousel*</t>
+  </si>
+  <si>
+    <t>User Profile Page w/ Item Purchases*</t>
+  </si>
+  <si>
+    <t>Denial of Payment Card (MM)*</t>
+  </si>
+  <si>
+    <t>Password Storage/Transmission(MS)*</t>
+  </si>
+  <si>
+    <t>Home Page Item Carousel(MA)*</t>
+  </si>
+  <si>
+    <t>Password Storage/Transmission (MS)*</t>
+  </si>
+  <si>
+    <t>Home Page Item Carousel (MA)*</t>
+  </si>
+  <si>
+    <t>Jinja Template Application (MS)*</t>
+  </si>
+  <si>
+    <t>User Profile Page w/ Item Purchases (MS)*</t>
+  </si>
+  <si>
+    <t>Purchase Item Listing (MS)*</t>
+  </si>
+  <si>
+    <t>Jinja Template Application (MS/ZG/MA/MM)*</t>
+  </si>
+  <si>
+    <t>Delete User Account (MM)*</t>
+  </si>
+  <si>
+    <t>User Account Page (ZG)*</t>
+  </si>
+  <si>
+    <t>Create User Account (MS)*</t>
+  </si>
+  <si>
+    <t>Item Listing Page (MS)*</t>
+  </si>
+  <si>
+    <t>Select Item Quantity (MM)*</t>
+  </si>
+  <si>
+    <t>New Item Listing Form (ZG)*</t>
+  </si>
+  <si>
+    <t>Additional Sales Tax (MS)*</t>
+  </si>
 </sst>
 </file>
 
@@ -469,7 +577,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -789,6 +897,30 @@
       <sz val="13"/>
       <name val="Calibri"/>
       <color rgb="FF735773"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1006,7 +1138,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,6 +1458,24 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="48" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1739,13 +1889,13 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0" topLeftCell="A16">
-      <selection activeCell="B24" sqref="B24" activeCellId="0"/>
+    <sheetView showGridLines="false" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="B5" sqref="B5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.0508" customWidth="1"/>
+    <col min="1" max="1" width="32.5234" customWidth="1"/>
     <col min="2" max="2" width="44.3672" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.8398" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.9453" style="1" customWidth="1"/>
@@ -2157,10 +2307,10 @@
       <c r="E6" s="89">
         <v>44675</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="104">
+      <c r="F6" s="110">
+        <v>1</v>
+      </c>
+      <c r="G6" s="107">
         <v>1</v>
       </c>
       <c r="H6" s="106"/>
@@ -2178,16 +2328,16 @@
       <c r="E7" s="89">
         <v>44675</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="104">
+      <c r="F7" s="87">
+        <v>1</v>
+      </c>
+      <c r="G7" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="52" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="C8" s="83">
         <v>44675</v>
@@ -2198,16 +2348,16 @@
       <c r="E8" s="89">
         <v>44675</v>
       </c>
-      <c r="F8" s="7">
-        <v>3</v>
-      </c>
-      <c r="G8" s="104">
-        <v>0.9500000000000001</v>
+      <c r="F8" s="87">
+        <v>1</v>
+      </c>
+      <c r="G8" s="107">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="52" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C9" s="83">
         <v>44675</v>
@@ -2218,16 +2368,16 @@
       <c r="E9" s="89">
         <v>44675</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="104">
+      <c r="F9" s="87">
+        <v>3</v>
+      </c>
+      <c r="G9" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="52" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C10" s="83">
         <v>44675</v>
@@ -2238,16 +2388,16 @@
       <c r="E10" s="89">
         <v>44675</v>
       </c>
-      <c r="F10" s="7">
-        <v>4</v>
-      </c>
-      <c r="G10" s="104">
+      <c r="F10" s="87">
+        <v>2</v>
+      </c>
+      <c r="G10" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="52" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C11" s="83">
         <v>44675</v>
@@ -2258,16 +2408,16 @@
       <c r="E11" s="89">
         <v>44675</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="87">
         <v>2</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G11" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="52" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C12" s="83">
         <v>44675</v>
@@ -2278,36 +2428,36 @@
       <c r="E12" s="89">
         <v>44675</v>
       </c>
-      <c r="F12" s="7">
-        <v>3</v>
-      </c>
-      <c r="G12" s="104">
+      <c r="F12" s="87">
+        <v>2</v>
+      </c>
+      <c r="G12" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="52" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C13" s="83">
-        <v>44675</v>
+        <v>44686</v>
       </c>
       <c r="D13" s="87">
         <v>3</v>
       </c>
       <c r="E13" s="89">
-        <v>44675</v>
-      </c>
-      <c r="F13" s="7">
-        <v>3</v>
-      </c>
-      <c r="G13" s="104">
+        <v>44686</v>
+      </c>
+      <c r="F13" s="87">
+        <v>1</v>
+      </c>
+      <c r="G13" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="52" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C14" s="83">
         <v>44686</v>
@@ -2318,36 +2468,36 @@
       <c r="E14" s="89">
         <v>44686</v>
       </c>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.85</v>
+      <c r="F14" s="87">
+        <v>3</v>
+      </c>
+      <c r="G14" s="107">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="52" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C15" s="83">
-        <v>44686</v>
+        <v>44675</v>
       </c>
       <c r="D15" s="87">
         <v>3</v>
       </c>
       <c r="E15" s="89">
-        <v>44686</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.85</v>
+        <v>44675</v>
+      </c>
+      <c r="F15" s="87">
+        <v>3</v>
+      </c>
+      <c r="G15" s="107">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="52" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C16" s="83">
         <v>44675</v>
@@ -2358,16 +2508,16 @@
       <c r="E16" s="89">
         <v>44675</v>
       </c>
-      <c r="F16" s="7">
-        <v>3</v>
-      </c>
-      <c r="G16" s="104">
+      <c r="F16" s="87">
+        <v>1</v>
+      </c>
+      <c r="G16" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="52" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="C17" s="83">
         <v>44675</v>
@@ -2378,38 +2528,38 @@
       <c r="E17" s="89">
         <v>44675</v>
       </c>
-      <c r="F17" s="7">
-        <v>3</v>
-      </c>
-      <c r="G17" s="104">
-        <v>0.6000000000000001</v>
+      <c r="F17" s="87">
+        <v>1</v>
+      </c>
+      <c r="G17" s="107">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="83">
-        <v>44675</v>
+        <v>152</v>
+      </c>
+      <c r="C18" s="89">
+        <v>44686</v>
       </c>
       <c r="D18" s="87">
         <v>3</v>
       </c>
       <c r="E18" s="89">
-        <v>44675</v>
-      </c>
-      <c r="F18" s="7">
-        <v>6</v>
-      </c>
-      <c r="G18" s="104">
+        <v>44686</v>
+      </c>
+      <c r="F18" s="87">
+        <v>1</v>
+      </c>
+      <c r="G18" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="89">
+        <v>153</v>
+      </c>
+      <c r="C19" s="83">
         <v>44686</v>
       </c>
       <c r="D19" s="87">
@@ -2418,18 +2568,18 @@
       <c r="E19" s="89">
         <v>44686</v>
       </c>
-      <c r="F19" s="7">
-        <v>7</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="87">
+        <v>2</v>
+      </c>
+      <c r="G19" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="83">
+        <v>154</v>
+      </c>
+      <c r="C20" s="89">
         <v>44686</v>
       </c>
       <c r="D20" s="87">
@@ -2438,148 +2588,152 @@
       <c r="E20" s="89">
         <v>44686</v>
       </c>
-      <c r="F20" s="7">
-        <v>8</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.6</v>
+      <c r="F20" s="87">
+        <v>3</v>
+      </c>
+      <c r="G20" s="107">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="89">
+      <c r="B21" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="112" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="89">
         <v>44686</v>
       </c>
-      <c r="D21" s="87">
-        <v>3</v>
-      </c>
-      <c r="E21" s="89">
+      <c r="D22" s="87">
+        <v>3</v>
+      </c>
+      <c r="E22" s="89">
         <v>44686</v>
       </c>
-      <c r="F21" s="7">
-        <v>3</v>
-      </c>
-      <c r="G21" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>56</v>
+      <c r="F22" s="87">
+        <v>1</v>
+      </c>
+      <c r="G22" s="107">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="52" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C23" s="89">
         <v>44686</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="87">
         <v>3</v>
       </c>
       <c r="E23" s="89">
         <v>44686</v>
       </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="104">
-        <v>0</v>
+      <c r="F23" s="87">
+        <v>3</v>
+      </c>
+      <c r="G23" s="107">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="7">
-        <v>3</v>
-      </c>
-      <c r="G24" s="104">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="C24" s="89">
+        <v>44675</v>
+      </c>
+      <c r="D24" s="87">
+        <v>3</v>
+      </c>
+      <c r="E24" s="89">
+        <v>44675</v>
+      </c>
+      <c r="F24" s="87">
+        <v>3</v>
+      </c>
+      <c r="G24" s="107">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="52" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C25" s="89">
         <v>44675</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="87">
         <v>3</v>
       </c>
       <c r="E25" s="89">
         <v>44675</v>
       </c>
-      <c r="F25" s="7">
-        <v>3</v>
-      </c>
-      <c r="G25" s="104">
+      <c r="F25" s="87">
+        <v>3</v>
+      </c>
+      <c r="G25" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="52" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="C26" s="89">
-        <v>44675</v>
-      </c>
-      <c r="D26" s="7">
+        <v>44686</v>
+      </c>
+      <c r="D26" s="87">
         <v>3</v>
       </c>
       <c r="E26" s="89">
-        <v>44675</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
-      <c r="G26" s="104">
+        <v>44686</v>
+      </c>
+      <c r="F26" s="87">
+        <v>3</v>
+      </c>
+      <c r="G26" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="C27" s="89">
+        <v>44686</v>
+      </c>
+      <c r="D27" s="87">
+        <v>3</v>
+      </c>
+      <c r="E27" s="89">
+        <v>44686</v>
+      </c>
+      <c r="F27" s="87">
+        <v>3</v>
+      </c>
+      <c r="G27" s="107">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" s="38"/>
@@ -2636,14 +2790,6 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="38"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2661,7 +2807,7 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="H6:BO35">
+  <conditionalFormatting sqref="H6:BO34">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2687,7 +2833,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:BO36">
+  <conditionalFormatting sqref="B35:BO35">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
